--- a/TODO/3-Saturday/PriceChart.xlsx
+++ b/TODO/3-Saturday/PriceChart.xlsx
@@ -94,7 +94,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,12 +156,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -166,6 +166,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,16 +507,16 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E2:E6"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="14.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="31.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -526,84 +532,84 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>2E-3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>1.9E-3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>1.8E-3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="9">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
